--- a/Banco Central/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Mensual.xlsx
+++ b/Banco Central/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>Serie</t>
   </si>
@@ -959,6 +959,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J306"/>
+  <dimension ref="A1:J307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5976,7 +5979,7 @@
         <v>95.90000000000001</v>
       </c>
       <c r="E146">
-        <v>93.40000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="F146">
         <v>81.90000000000001</v>
@@ -6043,7 +6046,7 @@
         <v>94.2</v>
       </c>
       <c r="F148">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="G148">
         <v>71.09999999999999</v>
@@ -6072,7 +6075,7 @@
         <v>93.5</v>
       </c>
       <c r="E149">
-        <v>92.40000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="F149">
         <v>82.09999999999999</v>
@@ -6095,7 +6098,7 @@
         <v>158</v>
       </c>
       <c r="B150">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="C150">
         <v>89.7</v>
@@ -6104,7 +6107,7 @@
         <v>94.7</v>
       </c>
       <c r="E150">
-        <v>89.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F150">
         <v>83.5</v>
@@ -6136,10 +6139,10 @@
         <v>96</v>
       </c>
       <c r="E151">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F151">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="G151">
         <v>71.2</v>
@@ -6148,7 +6151,7 @@
         <v>81</v>
       </c>
       <c r="I151">
-        <v>84.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="J151">
         <v>81.40000000000001</v>
@@ -6159,10 +6162,10 @@
         <v>160</v>
       </c>
       <c r="B152">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C152">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="D152">
         <v>100.3</v>
@@ -6206,7 +6209,7 @@
         <v>83.8</v>
       </c>
       <c r="G153">
-        <v>70.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="H153">
         <v>81.3</v>
@@ -6232,7 +6235,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="E154">
-        <v>90.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="F154">
         <v>84.7</v>
@@ -6264,7 +6267,7 @@
         <v>92</v>
       </c>
       <c r="E155">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="F155">
         <v>84.40000000000001</v>
@@ -6279,7 +6282,7 @@
         <v>83.2</v>
       </c>
       <c r="J155">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -6299,16 +6302,16 @@
         <v>84.40000000000001</v>
       </c>
       <c r="F156">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="G156">
-        <v>67.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="H156">
         <v>82.3</v>
       </c>
       <c r="I156">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="J156">
         <v>80</v>
@@ -6328,7 +6331,7 @@
         <v>94.3</v>
       </c>
       <c r="E157">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="F157">
         <v>81.5</v>
@@ -6351,7 +6354,7 @@
         <v>166</v>
       </c>
       <c r="B158">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C158">
         <v>85.7</v>
@@ -6450,7 +6453,7 @@
         <v>80.5</v>
       </c>
       <c r="C161">
-        <v>86.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D161">
         <v>91.90000000000001</v>
@@ -6488,7 +6491,7 @@
         <v>92.3</v>
       </c>
       <c r="E162">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="F162">
         <v>82.5</v>
@@ -6503,7 +6506,7 @@
         <v>81.2</v>
       </c>
       <c r="J162">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6622,7 +6625,7 @@
         <v>82.5</v>
       </c>
       <c r="G166">
-        <v>64.5</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="H166">
         <v>82.09999999999999</v>
@@ -6738,7 +6741,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="C170">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D170">
         <v>89.09999999999999</v>
@@ -6875,10 +6878,10 @@
         <v>87.59999999999999</v>
       </c>
       <c r="F174">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="G174">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="H174">
         <v>85.09999999999999</v>
@@ -6895,7 +6898,7 @@
         <v>183</v>
       </c>
       <c r="B175">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="C175">
         <v>90.40000000000001</v>
@@ -6913,7 +6916,7 @@
         <v>74.3</v>
       </c>
       <c r="H175">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="I175">
         <v>86.40000000000001</v>
@@ -7038,7 +7041,7 @@
         <v>86.40000000000001</v>
       </c>
       <c r="G179">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="H179">
         <v>87.40000000000001</v>
@@ -7064,13 +7067,13 @@
         <v>98.5</v>
       </c>
       <c r="E180">
-        <v>92.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="F180">
         <v>87.3</v>
       </c>
       <c r="G180">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="H180">
         <v>88.3</v>
@@ -7128,7 +7131,7 @@
         <v>91.3</v>
       </c>
       <c r="E182">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F182">
         <v>90.7</v>
@@ -7192,13 +7195,13 @@
         <v>92.2</v>
       </c>
       <c r="E184">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="F184">
         <v>90.2</v>
       </c>
       <c r="G184">
-        <v>84.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="H184">
         <v>90.40000000000001</v>
@@ -7239,7 +7242,7 @@
         <v>91.2</v>
       </c>
       <c r="J185">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -7256,10 +7259,10 @@
         <v>90.8</v>
       </c>
       <c r="E186">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="F186">
-        <v>91.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G186">
         <v>85.8</v>
@@ -7271,7 +7274,7 @@
         <v>91</v>
       </c>
       <c r="J186">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -7282,13 +7285,13 @@
         <v>90.8</v>
       </c>
       <c r="C187">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="D187">
         <v>88.90000000000001</v>
       </c>
       <c r="E187">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="F187">
         <v>91.3</v>
@@ -7320,7 +7323,7 @@
         <v>87.09999999999999</v>
       </c>
       <c r="E188">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F188">
         <v>93.09999999999999</v>
@@ -7416,13 +7419,13 @@
         <v>92.59999999999999</v>
       </c>
       <c r="E191">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="F191">
         <v>93</v>
       </c>
       <c r="G191">
-        <v>87.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="H191">
         <v>93</v>
@@ -7448,7 +7451,7 @@
         <v>89.8</v>
       </c>
       <c r="E192">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="F192">
         <v>93</v>
@@ -7483,7 +7486,7 @@
         <v>95.7</v>
       </c>
       <c r="F193">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="G193">
         <v>90.90000000000001</v>
@@ -7512,7 +7515,7 @@
         <v>93.3</v>
       </c>
       <c r="E194">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F194">
         <v>93.59999999999999</v>
@@ -7567,7 +7570,7 @@
         <v>204</v>
       </c>
       <c r="B196">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="C196">
         <v>96</v>
@@ -7579,7 +7582,7 @@
         <v>98.59999999999999</v>
       </c>
       <c r="F196">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G196">
         <v>90.09999999999999</v>
@@ -7614,7 +7617,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="G197">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="H197">
         <v>96.5</v>
@@ -7634,13 +7637,13 @@
         <v>95.8</v>
       </c>
       <c r="C198">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D198">
         <v>93.90000000000001</v>
       </c>
       <c r="E198">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="F198">
         <v>94.90000000000001</v>
@@ -7678,7 +7681,7 @@
         <v>99.2</v>
       </c>
       <c r="G199">
-        <v>92.40000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="H199">
         <v>97.2</v>
@@ -7704,19 +7707,19 @@
         <v>91</v>
       </c>
       <c r="E200">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F200">
         <v>99.2</v>
       </c>
       <c r="G200">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="H200">
         <v>97.8</v>
       </c>
       <c r="I200">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="J200">
         <v>97.59999999999999</v>
@@ -7727,7 +7730,7 @@
         <v>209</v>
       </c>
       <c r="B201">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="C201">
         <v>97.3</v>
@@ -7742,7 +7745,7 @@
         <v>97.8</v>
       </c>
       <c r="G201">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H201">
         <v>96.90000000000001</v>
@@ -7832,7 +7835,7 @@
         <v>96.2</v>
       </c>
       <c r="E204">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F204">
         <v>96.40000000000001</v>
@@ -7899,7 +7902,7 @@
         <v>99.3</v>
       </c>
       <c r="F206">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G206">
         <v>95.59999999999999</v>
@@ -7943,7 +7946,7 @@
         <v>98.09999999999999</v>
       </c>
       <c r="J207">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7954,7 +7957,7 @@
         <v>98.7</v>
       </c>
       <c r="C208">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="D208">
         <v>98.59999999999999</v>
@@ -7992,7 +7995,7 @@
         <v>97.3</v>
       </c>
       <c r="E209">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="F209">
         <v>100.1</v>
@@ -8024,7 +8027,7 @@
         <v>93.5</v>
       </c>
       <c r="E210">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="F210">
         <v>100.7</v>
@@ -8033,13 +8036,13 @@
         <v>100.4</v>
       </c>
       <c r="H210">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="I210">
         <v>99.59999999999999</v>
       </c>
       <c r="J210">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -8056,7 +8059,7 @@
         <v>103</v>
       </c>
       <c r="E211">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="F211">
         <v>99.7</v>
@@ -8126,16 +8129,16 @@
         <v>99.59999999999999</v>
       </c>
       <c r="G213">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="H213">
         <v>100.1</v>
       </c>
       <c r="I213">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="J213">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -8152,13 +8155,13 @@
         <v>103.4</v>
       </c>
       <c r="E214">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="F214">
         <v>100.7</v>
       </c>
       <c r="G214">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="H214">
         <v>100.1</v>
@@ -8167,7 +8170,7 @@
         <v>100.6</v>
       </c>
       <c r="J214">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -8207,10 +8210,10 @@
         <v>224</v>
       </c>
       <c r="B216">
+        <v>101.5</v>
+      </c>
+      <c r="C216">
         <v>101.6</v>
-      </c>
-      <c r="C216">
-        <v>101.7</v>
       </c>
       <c r="D216">
         <v>104.4</v>
@@ -8254,7 +8257,7 @@
         <v>100.9</v>
       </c>
       <c r="G217">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="H217">
         <v>101.6</v>
@@ -8274,7 +8277,7 @@
         <v>100.7</v>
       </c>
       <c r="C218">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D218">
         <v>101</v>
@@ -8321,7 +8324,7 @@
         <v>102.1</v>
       </c>
       <c r="H219">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="I219">
         <v>101.5</v>
@@ -8344,7 +8347,7 @@
         <v>101.8</v>
       </c>
       <c r="E220">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="F220">
         <v>98.7</v>
@@ -8382,7 +8385,7 @@
         <v>98.90000000000001</v>
       </c>
       <c r="G221">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="H221">
         <v>101.7</v>
@@ -8399,16 +8402,16 @@
         <v>230</v>
       </c>
       <c r="B222">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="C222">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D222">
         <v>104</v>
       </c>
       <c r="E222">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="F222">
         <v>99.7</v>
@@ -8431,7 +8434,7 @@
         <v>231</v>
       </c>
       <c r="B223">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="C223">
         <v>100.6</v>
@@ -8440,7 +8443,7 @@
         <v>104.5</v>
       </c>
       <c r="E223">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="F223">
         <v>99.2</v>
@@ -8452,7 +8455,7 @@
         <v>102.3</v>
       </c>
       <c r="I223">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="J223">
         <v>101.1</v>
@@ -8478,7 +8481,7 @@
         <v>97.3</v>
       </c>
       <c r="G224">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="H224">
         <v>102.5</v>
@@ -8504,13 +8507,13 @@
         <v>98.09999999999999</v>
       </c>
       <c r="E225">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F225">
         <v>98.8</v>
       </c>
       <c r="G225">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="H225">
         <v>102.7</v>
@@ -8600,7 +8603,7 @@
         <v>100.2</v>
       </c>
       <c r="E228">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F228">
         <v>103.8</v>
@@ -8664,7 +8667,7 @@
         <v>108.5</v>
       </c>
       <c r="E230">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F230">
         <v>99.5</v>
@@ -8676,7 +8679,7 @@
         <v>104.3</v>
       </c>
       <c r="I230">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="J230">
         <v>102.7</v>
@@ -8693,7 +8696,7 @@
         <v>100.7</v>
       </c>
       <c r="D231">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="E231">
         <v>97.5</v>
@@ -8711,7 +8714,7 @@
         <v>102.8</v>
       </c>
       <c r="J231">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -8734,7 +8737,7 @@
         <v>102.6</v>
       </c>
       <c r="G232">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="H232">
         <v>104.4</v>
@@ -8751,7 +8754,7 @@
         <v>241</v>
       </c>
       <c r="B233">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="C233">
         <v>103.1</v>
@@ -8786,13 +8789,13 @@
         <v>104</v>
       </c>
       <c r="C234">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D234">
         <v>103.1</v>
       </c>
       <c r="E234">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="F234">
         <v>104.3</v>
@@ -8804,7 +8807,7 @@
         <v>105.5</v>
       </c>
       <c r="I234">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="J234">
         <v>104.1</v>
@@ -8815,7 +8818,7 @@
         <v>243</v>
       </c>
       <c r="B235">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="C235">
         <v>104.5</v>
@@ -8824,7 +8827,7 @@
         <v>107.9</v>
       </c>
       <c r="E235">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="F235">
         <v>104.7</v>
@@ -8836,10 +8839,10 @@
         <v>105</v>
       </c>
       <c r="I235">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="J235">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -8853,7 +8856,7 @@
         <v>101.3</v>
       </c>
       <c r="D236">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E236">
         <v>100.1</v>
@@ -8862,13 +8865,13 @@
         <v>104.2</v>
       </c>
       <c r="G236">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="H236">
         <v>105.8</v>
       </c>
       <c r="I236">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="J236">
         <v>104.7</v>
@@ -8879,7 +8882,7 @@
         <v>245</v>
       </c>
       <c r="B237">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="C237">
         <v>98.40000000000001</v>
@@ -8888,13 +8891,13 @@
         <v>89.59999999999999</v>
       </c>
       <c r="E237">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F237">
         <v>106.7</v>
       </c>
       <c r="G237">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="H237">
         <v>106.3</v>
@@ -8952,7 +8955,7 @@
         <v>101.9</v>
       </c>
       <c r="E239">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F239">
         <v>105.7</v>
@@ -8990,7 +8993,7 @@
         <v>106.2</v>
       </c>
       <c r="G240">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="H240">
         <v>107.2</v>
@@ -8999,7 +9002,7 @@
         <v>104.8</v>
       </c>
       <c r="J240">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -9013,7 +9016,7 @@
         <v>102.2</v>
       </c>
       <c r="D241">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="E241">
         <v>99.3</v>
@@ -9054,7 +9057,7 @@
         <v>105.6</v>
       </c>
       <c r="G242">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="H242">
         <v>107.6</v>
@@ -9063,7 +9066,7 @@
         <v>105.4</v>
       </c>
       <c r="J242">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -9077,7 +9080,7 @@
         <v>103.4</v>
       </c>
       <c r="D243">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="E243">
         <v>99.40000000000001</v>
@@ -9112,22 +9115,22 @@
         <v>104.2</v>
       </c>
       <c r="E244">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F244">
         <v>106.1</v>
       </c>
       <c r="G244">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="H244">
         <v>108.1</v>
       </c>
       <c r="I244">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="J244">
-        <v>105.9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -9144,7 +9147,7 @@
         <v>98.8</v>
       </c>
       <c r="E245">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F245">
         <v>106.7</v>
@@ -9159,7 +9162,7 @@
         <v>105.2</v>
       </c>
       <c r="J245">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -9167,19 +9170,19 @@
         <v>254</v>
       </c>
       <c r="B246">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="C246">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D246">
         <v>102.7</v>
       </c>
       <c r="E246">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="F246">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="G246">
         <v>103.3</v>
@@ -9188,10 +9191,10 @@
         <v>108.3</v>
       </c>
       <c r="I246">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="J246">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -9199,31 +9202,31 @@
         <v>255</v>
       </c>
       <c r="B247">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="C247">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="D247">
         <v>99.59999999999999</v>
       </c>
       <c r="E247">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F247">
         <v>108</v>
       </c>
       <c r="G247">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="H247">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="I247">
         <v>105.9</v>
       </c>
       <c r="J247">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -9240,13 +9243,13 @@
         <v>98.40000000000001</v>
       </c>
       <c r="E248">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="F248">
         <v>108</v>
       </c>
       <c r="G248">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="H248">
         <v>108.7</v>
@@ -9278,13 +9281,13 @@
         <v>108.6</v>
       </c>
       <c r="G249">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="H249">
         <v>109.3</v>
       </c>
       <c r="I249">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="J249">
         <v>106.9</v>
@@ -9310,7 +9313,7 @@
         <v>108.8</v>
       </c>
       <c r="G250">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="H250">
         <v>108.9</v>
@@ -9327,7 +9330,7 @@
         <v>259</v>
       </c>
       <c r="B251">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="C251">
         <v>101.1</v>
@@ -9336,7 +9339,7 @@
         <v>94</v>
       </c>
       <c r="E251">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="F251">
         <v>108.2</v>
@@ -9368,7 +9371,7 @@
         <v>99.2</v>
       </c>
       <c r="E252">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="F252">
         <v>108.2</v>
@@ -9455,13 +9458,13 @@
         <v>263</v>
       </c>
       <c r="B255">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="C255">
         <v>99.3</v>
       </c>
       <c r="D255">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="E255">
         <v>97.09999999999999</v>
@@ -9473,7 +9476,7 @@
         <v>107.1</v>
       </c>
       <c r="H255">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="I255">
         <v>104.9</v>
@@ -9493,16 +9496,16 @@
         <v>97.09999999999999</v>
       </c>
       <c r="D256">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E256">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="F256">
         <v>106.9</v>
       </c>
       <c r="G256">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="H256">
         <v>108.1</v>
@@ -9534,7 +9537,7 @@
         <v>105.5</v>
       </c>
       <c r="G257">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="H257">
         <v>108.5</v>
@@ -9551,31 +9554,31 @@
         <v>266</v>
       </c>
       <c r="B258">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="C258">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D258">
         <v>97.7</v>
       </c>
       <c r="E258">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F258">
         <v>105.5</v>
       </c>
       <c r="G258">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="H258">
         <v>108.9</v>
       </c>
       <c r="I258">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="J258">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -9583,7 +9586,7 @@
         <v>267</v>
       </c>
       <c r="B259">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="C259">
         <v>100.9</v>
@@ -9592,22 +9595,22 @@
         <v>96.90000000000001</v>
       </c>
       <c r="E259">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F259">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="G259">
-        <v>110</v>
+        <v>109.8</v>
       </c>
       <c r="H259">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="I259">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="J259">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -9624,19 +9627,19 @@
         <v>100.7</v>
       </c>
       <c r="E260">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F260">
         <v>107.2</v>
       </c>
       <c r="G260">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="H260">
         <v>110.7</v>
       </c>
       <c r="I260">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="J260">
         <v>108.5</v>
@@ -9650,7 +9653,7 @@
         <v>108.1</v>
       </c>
       <c r="C261">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="D261">
         <v>102</v>
@@ -9662,7 +9665,7 @@
         <v>107.7</v>
       </c>
       <c r="G261">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="H261">
         <v>110.7</v>
@@ -9711,7 +9714,7 @@
         <v>271</v>
       </c>
       <c r="B263">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="C263">
         <v>105.3</v>
@@ -9720,7 +9723,7 @@
         <v>107.1</v>
       </c>
       <c r="E263">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="F263">
         <v>108.8</v>
@@ -9752,7 +9755,7 @@
         <v>103.5</v>
       </c>
       <c r="E264">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="F264">
         <v>108.6</v>
@@ -9775,7 +9778,7 @@
         <v>273</v>
       </c>
       <c r="B265">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="C265">
         <v>103.8</v>
@@ -9784,10 +9787,10 @@
         <v>99.09999999999999</v>
       </c>
       <c r="E265">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="F265">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="G265">
         <v>111.5</v>
@@ -9796,7 +9799,7 @@
         <v>111.6</v>
       </c>
       <c r="I265">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="J265">
         <v>110.1</v>
@@ -9848,13 +9851,13 @@
         <v>107.6</v>
       </c>
       <c r="E267">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="F267">
         <v>110.4</v>
       </c>
       <c r="G267">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="H267">
         <v>112.1</v>
@@ -9877,22 +9880,22 @@
         <v>106.4</v>
       </c>
       <c r="D268">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="E268">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="F268">
         <v>111</v>
       </c>
       <c r="G268">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="H268">
         <v>112.9</v>
       </c>
       <c r="I268">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="J268">
         <v>111.2</v>
@@ -9909,16 +9912,16 @@
         <v>106.8</v>
       </c>
       <c r="D269">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="E269">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="F269">
         <v>111.6</v>
       </c>
       <c r="G269">
-        <v>113.7</v>
+        <v>113.9</v>
       </c>
       <c r="H269">
         <v>113.7</v>
@@ -9927,7 +9930,7 @@
         <v>111.1</v>
       </c>
       <c r="J269">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -9935,31 +9938,31 @@
         <v>278</v>
       </c>
       <c r="B270">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="C270">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D270">
         <v>103.1</v>
       </c>
       <c r="E270">
-        <v>103.7</v>
+        <v>103.9</v>
       </c>
       <c r="F270">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="G270">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="H270">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="I270">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="J270">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9967,31 +9970,31 @@
         <v>279</v>
       </c>
       <c r="B271">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C271">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="D271">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="E271">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="F271">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="G271">
-        <v>114.6</v>
+        <v>114.3</v>
       </c>
       <c r="H271">
-        <v>113.4</v>
+        <v>113.3</v>
       </c>
       <c r="I271">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="J271">
-        <v>112.4</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -10008,22 +10011,22 @@
         <v>103.8</v>
       </c>
       <c r="E272">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="F272">
         <v>109.8</v>
       </c>
       <c r="G272">
-        <v>114.6</v>
+        <v>114.2</v>
       </c>
       <c r="H272">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="I272">
         <v>110.9</v>
       </c>
       <c r="J272">
-        <v>112.1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -10040,13 +10043,13 @@
         <v>96.8</v>
       </c>
       <c r="E273">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="F273">
         <v>108.1</v>
       </c>
       <c r="G273">
-        <v>114.5</v>
+        <v>114.2</v>
       </c>
       <c r="H273">
         <v>114</v>
@@ -10055,7 +10058,7 @@
         <v>110</v>
       </c>
       <c r="J273">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -10078,7 +10081,7 @@
         <v>108.4</v>
       </c>
       <c r="G274">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="H274">
         <v>114.8</v>
@@ -10104,13 +10107,13 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E275">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="F275">
         <v>110.8</v>
       </c>
       <c r="G275">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="H275">
         <v>115.2</v>
@@ -10130,7 +10133,7 @@
         <v>113.1</v>
       </c>
       <c r="C276">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="D276">
         <v>110.2</v>
@@ -10139,7 +10142,7 @@
         <v>104.1</v>
       </c>
       <c r="F276">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="G276">
         <v>113</v>
@@ -10174,10 +10177,10 @@
         <v>109.8</v>
       </c>
       <c r="G277">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="H277">
-        <v>115.7</v>
+        <v>115.6</v>
       </c>
       <c r="I277">
         <v>111.5</v>
@@ -10191,28 +10194,28 @@
         <v>286</v>
       </c>
       <c r="B278">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="C278">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D278">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E278">
         <v>104.5</v>
       </c>
       <c r="F278">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="G278">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="H278">
         <v>116.4</v>
       </c>
       <c r="I278">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="J278">
         <v>113.8</v>
@@ -10223,22 +10226,22 @@
         <v>287</v>
       </c>
       <c r="B279">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="C279">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D279">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E279">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="F279">
         <v>110.7</v>
       </c>
       <c r="G279">
-        <v>113.8</v>
+        <v>114</v>
       </c>
       <c r="H279">
         <v>116</v>
@@ -10258,19 +10261,19 @@
         <v>112.3</v>
       </c>
       <c r="C280">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D280">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E280">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="F280">
         <v>111.7</v>
       </c>
       <c r="G280">
-        <v>114.2</v>
+        <v>114.3</v>
       </c>
       <c r="H280">
         <v>116.8</v>
@@ -10287,31 +10290,31 @@
         <v>289</v>
       </c>
       <c r="B281">
-        <v>113</v>
+        <v>113.1</v>
       </c>
       <c r="C281">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D281">
         <v>98.8</v>
       </c>
       <c r="E281">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="F281">
         <v>112</v>
       </c>
       <c r="G281">
-        <v>115.8</v>
+        <v>116.1</v>
       </c>
       <c r="H281">
-        <v>117.2</v>
+        <v>117.1</v>
       </c>
       <c r="I281">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="J281">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -10319,31 +10322,31 @@
         <v>290</v>
       </c>
       <c r="B282">
-        <v>113.5</v>
+        <v>113.7</v>
       </c>
       <c r="C282">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="D282">
         <v>97.09999999999999</v>
       </c>
       <c r="E282">
-        <v>105.5</v>
+        <v>105.7</v>
       </c>
       <c r="F282">
-        <v>112</v>
+        <v>112.1</v>
       </c>
       <c r="G282">
-        <v>116.7</v>
+        <v>117</v>
       </c>
       <c r="H282">
-        <v>117.7</v>
+        <v>117.9</v>
       </c>
       <c r="I282">
-        <v>113</v>
+        <v>113.2</v>
       </c>
       <c r="J282">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -10351,31 +10354,31 @@
         <v>291</v>
       </c>
       <c r="B283">
-        <v>113</v>
+        <v>112.8</v>
       </c>
       <c r="C283">
-        <v>106.1</v>
+        <v>105.9</v>
       </c>
       <c r="D283">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="E283">
-        <v>104.8</v>
+        <v>104.5</v>
       </c>
       <c r="F283">
-        <v>113</v>
+        <v>112.7</v>
       </c>
       <c r="G283">
-        <v>115.9</v>
+        <v>115.5</v>
       </c>
       <c r="H283">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="I283">
-        <v>112.7</v>
+        <v>112.5</v>
       </c>
       <c r="J283">
-        <v>114.6</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -10386,28 +10389,28 @@
         <v>113.3</v>
       </c>
       <c r="C284">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="D284">
         <v>100.5</v>
       </c>
       <c r="E284">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="F284">
         <v>112.2</v>
       </c>
       <c r="G284">
-        <v>115.6</v>
+        <v>115.2</v>
       </c>
       <c r="H284">
         <v>117.1</v>
       </c>
       <c r="I284">
-        <v>113</v>
+        <v>112.9</v>
       </c>
       <c r="J284">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -10415,7 +10418,7 @@
         <v>293</v>
       </c>
       <c r="B285">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="C285">
         <v>107.7</v>
@@ -10424,19 +10427,19 @@
         <v>103.5</v>
       </c>
       <c r="E285">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="F285">
         <v>112.7</v>
       </c>
       <c r="G285">
-        <v>116.3</v>
+        <v>116.1</v>
       </c>
       <c r="H285">
         <v>118.4</v>
       </c>
       <c r="I285">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="J285">
         <v>115.8</v>
@@ -10471,7 +10474,7 @@
         <v>114</v>
       </c>
       <c r="J286">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -10488,13 +10491,13 @@
         <v>100</v>
       </c>
       <c r="E287">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F287">
         <v>110.3</v>
       </c>
       <c r="G287">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="H287">
         <v>111.9</v>
@@ -10520,7 +10523,7 @@
         <v>101.4</v>
       </c>
       <c r="E288">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="F288">
         <v>110.9</v>
@@ -10535,7 +10538,7 @@
         <v>108.7</v>
       </c>
       <c r="J288">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -10546,19 +10549,19 @@
         <v>112.1</v>
       </c>
       <c r="C289">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D289">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="E289">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="F289">
         <v>111.9</v>
       </c>
       <c r="G289">
-        <v>112.7</v>
+        <v>112.8</v>
       </c>
       <c r="H289">
         <v>115.5</v>
@@ -10578,7 +10581,7 @@
         <v>113.7</v>
       </c>
       <c r="C290">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D290">
         <v>102.1</v>
@@ -10590,7 +10593,7 @@
         <v>112.7</v>
       </c>
       <c r="G290">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="H290">
         <v>118</v>
@@ -10599,7 +10602,7 @@
         <v>113.4</v>
       </c>
       <c r="J290">
-        <v>114.9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -10613,16 +10616,16 @@
         <v>107.3</v>
       </c>
       <c r="D291">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="E291">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="F291">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="G291">
-        <v>114</v>
+        <v>114.3</v>
       </c>
       <c r="H291">
         <v>118.4</v>
@@ -10639,22 +10642,22 @@
         <v>300</v>
       </c>
       <c r="B292">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="C292">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D292">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="E292">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F292">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="G292">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="H292">
         <v>111.2</v>
@@ -10663,7 +10666,7 @@
         <v>108.2</v>
       </c>
       <c r="J292">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -10680,13 +10683,13 @@
         <v>100.8</v>
       </c>
       <c r="E293">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="F293">
         <v>105.2</v>
       </c>
       <c r="G293">
-        <v>91.7</v>
+        <v>92</v>
       </c>
       <c r="H293">
         <v>100.7</v>
@@ -10703,31 +10706,31 @@
         <v>302</v>
       </c>
       <c r="B294">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C294">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="D294">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="E294">
-        <v>92.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F294">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="G294">
-        <v>92.40000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="H294">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="I294">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J294">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -10735,31 +10738,31 @@
         <v>303</v>
       </c>
       <c r="B295">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="C295">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="D295">
-        <v>101.9</v>
+        <v>102.2</v>
       </c>
       <c r="E295">
-        <v>91.8</v>
+        <v>91.5</v>
       </c>
       <c r="F295">
-        <v>90.90000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="G295">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H295">
         <v>99.09999999999999</v>
       </c>
       <c r="I295">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="J295">
-        <v>96.3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -10776,22 +10779,22 @@
         <v>102.7</v>
       </c>
       <c r="E296">
-        <v>95.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F296">
         <v>90.59999999999999</v>
       </c>
       <c r="G296">
-        <v>104.3</v>
+        <v>103.9</v>
       </c>
       <c r="H296">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="I296">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="J296">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -10802,28 +10805,28 @@
         <v>102.3</v>
       </c>
       <c r="C297">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="D297">
         <v>101.1</v>
       </c>
       <c r="E297">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F297">
         <v>93.5</v>
       </c>
       <c r="G297">
-        <v>118.5</v>
+        <v>118.2</v>
       </c>
       <c r="H297">
         <v>101.1</v>
       </c>
       <c r="I297">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="J297">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -10840,13 +10843,13 @@
         <v>101.1</v>
       </c>
       <c r="E298">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="F298">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="G298">
-        <v>121.3</v>
+        <v>121.2</v>
       </c>
       <c r="H298">
         <v>108.1</v>
@@ -10866,25 +10869,25 @@
         <v>107.5</v>
       </c>
       <c r="C299">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="D299">
         <v>101.9</v>
       </c>
       <c r="E299">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="F299">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="G299">
-        <v>122.3</v>
+        <v>122.1</v>
       </c>
       <c r="H299">
         <v>106.2</v>
       </c>
       <c r="I299">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="J299">
         <v>108</v>
@@ -10907,7 +10910,7 @@
         <v>104.6</v>
       </c>
       <c r="F300">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="G300">
         <v>122.8</v>
@@ -10936,16 +10939,16 @@
         <v>94</v>
       </c>
       <c r="E301">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="F301">
         <v>109.1</v>
       </c>
       <c r="G301">
-        <v>123.9</v>
+        <v>124</v>
       </c>
       <c r="H301">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="I301">
         <v>111.5</v>
@@ -10962,19 +10965,19 @@
         <v>112.8</v>
       </c>
       <c r="C302">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D302">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="E302">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="F302">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="G302">
-        <v>125.7</v>
+        <v>125.9</v>
       </c>
       <c r="H302">
         <v>115.8</v>
@@ -10994,19 +10997,19 @@
         <v>114</v>
       </c>
       <c r="C303">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D303">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="E303">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="F303">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="G303">
-        <v>125.8</v>
+        <v>126.1</v>
       </c>
       <c r="H303">
         <v>117.9</v>
@@ -11015,7 +11018,7 @@
         <v>113.4</v>
       </c>
       <c r="J303">
-        <v>115.7</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -11023,22 +11026,22 @@
         <v>312</v>
       </c>
       <c r="B304">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="C304">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D304">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="E304">
-        <v>105</v>
+        <v>105.2</v>
       </c>
       <c r="F304">
-        <v>107</v>
+        <v>107.2</v>
       </c>
       <c r="G304">
-        <v>124.1</v>
+        <v>124.5</v>
       </c>
       <c r="H304">
         <v>115</v>
@@ -11047,7 +11050,7 @@
         <v>111.9</v>
       </c>
       <c r="J304">
-        <v>113.9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -11058,28 +11061,28 @@
         <v>111</v>
       </c>
       <c r="C305">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D305">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="E305">
-        <v>104.5</v>
+        <v>104.7</v>
       </c>
       <c r="F305">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="G305">
-        <v>123</v>
+        <v>123.6</v>
       </c>
       <c r="H305">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="I305">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="J305">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -11087,31 +11090,63 @@
         <v>314</v>
       </c>
       <c r="B306">
-        <v>113.8</v>
+        <v>114.1</v>
       </c>
       <c r="C306">
-        <v>105.1</v>
+        <v>105.3</v>
       </c>
       <c r="D306">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="E306">
-        <v>105.4</v>
+        <v>105.7</v>
       </c>
       <c r="F306">
-        <v>108.7</v>
+        <v>108.9</v>
       </c>
       <c r="G306">
-        <v>139.5</v>
+        <v>140.1</v>
       </c>
       <c r="H306">
-        <v>112.8</v>
+        <v>113</v>
       </c>
       <c r="I306">
-        <v>112.4</v>
+        <v>112.7</v>
       </c>
       <c r="J306">
-        <v>115.4</v>
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10">
+      <c r="A307" t="s">
+        <v>315</v>
+      </c>
+      <c r="B307">
+        <v>116.5</v>
+      </c>
+      <c r="C307">
+        <v>107.4</v>
+      </c>
+      <c r="D307">
+        <v>101.9</v>
+      </c>
+      <c r="E307">
+        <v>109.8</v>
+      </c>
+      <c r="F307">
+        <v>110.8</v>
+      </c>
+      <c r="G307">
+        <v>142.9</v>
+      </c>
+      <c r="H307">
+        <v>115.6</v>
+      </c>
+      <c r="I307">
+        <v>115.1</v>
+      </c>
+      <c r="J307">
+        <v>118.4</v>
       </c>
     </row>
   </sheetData>
